--- a/INTLINE/data/134/DEUSTATIS/Persons employed in retail trade.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Persons employed in retail trade.xlsx
@@ -12,11 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="68">
   <si>
-    <t>Persons employed in retail trade (measuring values and rates
-of change): Germany, months/quarters/half-years, economic
-activities</t>
+    <t>Persons employed in retail trade: Germany,
+months/quarters/half-years, economic activities</t>
   </si>
   <si>
     <t>Monthly statistics of retail trade</t>
@@ -227,7 +226,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:40:00</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:17:59</t>
   </si>
 </sst>
 </file>
@@ -9412,7 +9411,7 @@
     <col min="1" max="1" width="31.61328125" style="7" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="true">
+    <row r="1" ht="30.0" customHeight="true">
       <c r="A1" t="s" s="8">
         <v>0</v>
       </c>
@@ -12659,7 +12658,7 @@
         <v>106.1</v>
       </c>
       <c r="LV9" t="n" s="10">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="LW9" t="n" s="10">
         <v>106.5</v>
@@ -12674,16 +12673,16 @@
         <v>107.4</v>
       </c>
       <c r="MA9" t="n" s="10">
+        <v>106.0</v>
+      </c>
+      <c r="MB9" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="MC9" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="MD9" t="n" s="10">
         <v>105.9</v>
-      </c>
-      <c r="MB9" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC9" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MD9" t="s" s="10">
-        <v>51</v>
       </c>
       <c r="ME9" t="s" s="10">
         <v>51</v>
@@ -13711,7 +13710,7 @@
         <v>1.3</v>
       </c>
       <c r="LV10" t="n" s="10">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="LW10" t="n" s="10">
         <v>1.1</v>
@@ -13728,14 +13727,14 @@
       <c r="MA10" t="n" s="10">
         <v>1.0</v>
       </c>
-      <c r="MB10" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC10" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MD10" t="s" s="10">
-        <v>51</v>
+      <c r="MB10" t="n" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="MC10" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="MD10" t="n" s="10">
+        <v>0.8</v>
       </c>
       <c r="ME10" t="s" s="10">
         <v>51</v>
@@ -14781,13 +14780,13 @@
         <v>57</v>
       </c>
       <c r="MB11" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC11" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD11" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME11" t="s" s="10">
         <v>51</v>
@@ -15833,13 +15832,13 @@
         <v>57</v>
       </c>
       <c r="MB12" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC12" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD12" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME12" t="s" s="10">
         <v>51</v>
@@ -16885,13 +16884,13 @@
         <v>57</v>
       </c>
       <c r="MB13" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC13" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD13" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME13" t="s" s="10">
         <v>51</v>
@@ -17937,13 +17936,13 @@
         <v>57</v>
       </c>
       <c r="MB14" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC14" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD14" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME14" t="s" s="10">
         <v>51</v>
@@ -18979,28 +18978,28 @@
         <v>111.3</v>
       </c>
       <c r="LW16" t="n" s="10">
-        <v>111.0</v>
+        <v>111.1</v>
       </c>
       <c r="LX16" t="n" s="10">
         <v>110.9</v>
       </c>
       <c r="LY16" t="n" s="10">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="LZ16" t="n" s="10">
         <v>111.3</v>
       </c>
       <c r="MA16" t="n" s="10">
-        <v>110.1</v>
-      </c>
-      <c r="MB16" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC16" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MD16" t="s" s="10">
-        <v>51</v>
+        <v>110.0</v>
+      </c>
+      <c r="MB16" t="n" s="10">
+        <v>109.6</v>
+      </c>
+      <c r="MC16" t="n" s="10">
+        <v>109.5</v>
+      </c>
+      <c r="MD16" t="n" s="10">
+        <v>109.3</v>
       </c>
       <c r="ME16" t="s" s="10">
         <v>51</v>
@@ -20031,28 +20030,28 @@
         <v>1.1</v>
       </c>
       <c r="LW17" t="n" s="10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="LX17" t="n" s="10">
         <v>0.6</v>
       </c>
       <c r="LY17" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="LZ17" t="n" s="10">
         <v>-0.1</v>
       </c>
       <c r="MA17" t="n" s="10">
-        <v>-1.2</v>
-      </c>
-      <c r="MB17" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC17" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MD17" t="s" s="10">
-        <v>51</v>
+        <v>-1.3</v>
+      </c>
+      <c r="MB17" t="n" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="MC17" t="n" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="MD17" t="n" s="10">
+        <v>-2.2</v>
       </c>
       <c r="ME17" t="s" s="10">
         <v>51</v>
@@ -21098,13 +21097,13 @@
         <v>57</v>
       </c>
       <c r="MB18" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC18" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD18" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME18" t="s" s="10">
         <v>51</v>
@@ -22150,13 +22149,13 @@
         <v>57</v>
       </c>
       <c r="MB19" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC19" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD19" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME19" t="s" s="10">
         <v>51</v>
@@ -23202,13 +23201,13 @@
         <v>57</v>
       </c>
       <c r="MB20" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC20" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD20" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME20" t="s" s="10">
         <v>51</v>
@@ -24254,13 +24253,13 @@
         <v>57</v>
       </c>
       <c r="MB21" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC21" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD21" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME21" t="s" s="10">
         <v>51</v>
@@ -25272,7 +25271,7 @@
         <v>104.8</v>
       </c>
       <c r="LO23" t="n" s="10">
-        <v>103.1</v>
+        <v>103.0</v>
       </c>
       <c r="LP23" t="n" s="10">
         <v>103.0</v>
@@ -25296,7 +25295,7 @@
         <v>105.4</v>
       </c>
       <c r="LW23" t="n" s="10">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="LX23" t="n" s="10">
         <v>105.4</v>
@@ -25308,16 +25307,16 @@
         <v>105.0</v>
       </c>
       <c r="MA23" t="n" s="10">
-        <v>103.3</v>
-      </c>
-      <c r="MB23" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC23" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MD23" t="s" s="10">
-        <v>51</v>
+        <v>103.0</v>
+      </c>
+      <c r="MB23" t="n" s="10">
+        <v>102.8</v>
+      </c>
+      <c r="MC23" t="n" s="10">
+        <v>102.9</v>
+      </c>
+      <c r="MD23" t="n" s="10">
+        <v>104.6</v>
       </c>
       <c r="ME23" t="s" s="10">
         <v>51</v>
@@ -26324,7 +26323,7 @@
         <v>-1.9</v>
       </c>
       <c r="LO24" t="n" s="10">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="LP24" t="n" s="10">
         <v>-1.5</v>
@@ -26348,7 +26347,7 @@
         <v>-0.7</v>
       </c>
       <c r="LW24" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="LX24" t="n" s="10">
         <v>-0.8</v>
@@ -26360,16 +26359,16 @@
         <v>0.2</v>
       </c>
       <c r="MA24" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="MB24" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC24" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MD24" t="s" s="10">
-        <v>51</v>
+        <v>0.0</v>
+      </c>
+      <c r="MB24" t="n" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="MC24" t="n" s="10">
+        <v>-0.6</v>
+      </c>
+      <c r="MD24" t="n" s="10">
+        <v>-0.1</v>
       </c>
       <c r="ME24" t="s" s="10">
         <v>51</v>
@@ -27415,13 +27414,13 @@
         <v>57</v>
       </c>
       <c r="MB25" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC25" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD25" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME25" t="s" s="10">
         <v>51</v>
@@ -28467,13 +28466,13 @@
         <v>57</v>
       </c>
       <c r="MB26" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC26" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD26" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME26" t="s" s="10">
         <v>51</v>
@@ -29519,13 +29518,13 @@
         <v>57</v>
       </c>
       <c r="MB27" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC27" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD27" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME27" t="s" s="10">
         <v>51</v>
@@ -30571,13 +30570,13 @@
         <v>57</v>
       </c>
       <c r="MB28" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC28" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD28" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME28" t="s" s="10">
         <v>51</v>
@@ -31589,52 +31588,52 @@
         <v>111.3</v>
       </c>
       <c r="LO30" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="LP30" t="n" s="10">
+        <v>108.5</v>
+      </c>
+      <c r="LQ30" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="LR30" t="n" s="10">
+        <v>109.1</v>
+      </c>
+      <c r="LS30" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="LT30" t="n" s="10">
+        <v>110.6</v>
+      </c>
+      <c r="LU30" t="n" s="10">
+        <v>110.7</v>
+      </c>
+      <c r="LV30" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="LW30" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="LX30" t="n" s="10">
+        <v>111.1</v>
+      </c>
+      <c r="LY30" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="LZ30" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="MA30" t="n" s="10">
+        <v>109.6</v>
+      </c>
+      <c r="MB30" t="n" s="10">
         <v>110.0</v>
       </c>
-      <c r="LP30" t="n" s="10">
-        <v>108.9</v>
-      </c>
-      <c r="LQ30" t="n" s="10">
-        <v>109.6</v>
-      </c>
-      <c r="LR30" t="n" s="10">
-        <v>109.5</v>
-      </c>
-      <c r="LS30" t="n" s="10">
-        <v>110.1</v>
-      </c>
-      <c r="LT30" t="n" s="10">
-        <v>110.9</v>
-      </c>
-      <c r="LU30" t="n" s="10">
-        <v>111.0</v>
-      </c>
-      <c r="LV30" t="n" s="10">
-        <v>111.6</v>
-      </c>
-      <c r="LW30" t="n" s="10">
-        <v>111.7</v>
-      </c>
-      <c r="LX30" t="n" s="10">
-        <v>111.5</v>
-      </c>
-      <c r="LY30" t="n" s="10">
-        <v>111.7</v>
-      </c>
-      <c r="LZ30" t="n" s="10">
-        <v>111.7</v>
-      </c>
-      <c r="MA30" t="n" s="10">
-        <v>110.1</v>
-      </c>
-      <c r="MB30" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC30" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MD30" t="s" s="10">
-        <v>51</v>
+      <c r="MC30" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="MD30" t="n" s="10">
+        <v>110.4</v>
       </c>
       <c r="ME30" t="s" s="10">
         <v>51</v>
@@ -32641,52 +32640,52 @@
         <v>1.8</v>
       </c>
       <c r="LO31" t="n" s="10">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="LP31" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.4</v>
       </c>
       <c r="LQ31" t="n" s="10">
-        <v>1.0</v>
+        <v>0.7</v>
       </c>
       <c r="LR31" t="n" s="10">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="LS31" t="n" s="10">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="LT31" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.3</v>
       </c>
       <c r="LU31" t="n" s="10">
+        <v>-0.7</v>
+      </c>
+      <c r="LV31" t="n" s="10">
+        <v>-0.9</v>
+      </c>
+      <c r="LW31" t="n" s="10">
+        <v>-0.9</v>
+      </c>
+      <c r="LX31" t="n" s="10">
+        <v>-1.3</v>
+      </c>
+      <c r="LY31" t="n" s="10">
         <v>-0.4</v>
       </c>
-      <c r="LV31" t="n" s="10">
-        <v>-0.6</v>
-      </c>
-      <c r="LW31" t="n" s="10">
-        <v>-0.5</v>
-      </c>
-      <c r="LX31" t="n" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="LY31" t="n" s="10">
+      <c r="LZ31" t="n" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="MA31" t="n" s="10">
         <v>-0.1</v>
       </c>
-      <c r="LZ31" t="n" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="MA31" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="MB31" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC31" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MD31" t="s" s="10">
-        <v>51</v>
+      <c r="MB31" t="n" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="MC31" t="n" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="MD31" t="n" s="10">
+        <v>1.2</v>
       </c>
       <c r="ME31" t="s" s="10">
         <v>51</v>
@@ -33732,13 +33731,13 @@
         <v>57</v>
       </c>
       <c r="MB32" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC32" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD32" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME32" t="s" s="10">
         <v>51</v>
@@ -34784,13 +34783,13 @@
         <v>57</v>
       </c>
       <c r="MB33" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC33" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD33" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME33" t="s" s="10">
         <v>51</v>
@@ -35836,13 +35835,13 @@
         <v>57</v>
       </c>
       <c r="MB34" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC34" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD34" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME34" t="s" s="10">
         <v>51</v>
@@ -36888,13 +36887,13 @@
         <v>57</v>
       </c>
       <c r="MB35" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC35" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD35" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME35" t="s" s="10">
         <v>51</v>
@@ -37906,13 +37905,13 @@
         <v>94.8</v>
       </c>
       <c r="LO37" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="LP37" t="n" s="10">
         <v>91.8</v>
       </c>
       <c r="LQ37" t="n" s="10">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="LR37" t="n" s="10">
         <v>89.7</v>
@@ -37921,37 +37920,37 @@
         <v>89.3</v>
       </c>
       <c r="LT37" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="LU37" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="LV37" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="LW37" t="n" s="10">
+        <v>90.3</v>
+      </c>
+      <c r="LX37" t="n" s="10">
         <v>90.4</v>
-      </c>
-      <c r="LX37" t="n" s="10">
-        <v>90.5</v>
       </c>
       <c r="LY37" t="n" s="10">
         <v>90.9</v>
       </c>
       <c r="LZ37" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="MA37" t="n" s="10">
-        <v>90.6</v>
-      </c>
-      <c r="MB37" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC37" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MD37" t="s" s="10">
-        <v>51</v>
+        <v>90.5</v>
+      </c>
+      <c r="MB37" t="n" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="MC37" t="n" s="10">
+        <v>89.8</v>
+      </c>
+      <c r="MD37" t="n" s="10">
+        <v>89.3</v>
       </c>
       <c r="ME37" t="s" s="10">
         <v>51</v>
@@ -38958,13 +38957,13 @@
         <v>-3.0</v>
       </c>
       <c r="LO38" t="n" s="10">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="LP38" t="n" s="10">
         <v>-4.7</v>
       </c>
       <c r="LQ38" t="n" s="10">
-        <v>-5.4</v>
+        <v>-5.5</v>
       </c>
       <c r="LR38" t="n" s="10">
         <v>-3.0</v>
@@ -38973,37 +38972,37 @@
         <v>-3.3</v>
       </c>
       <c r="LT38" t="n" s="10">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="LU38" t="n" s="10">
-        <v>-2.9</v>
+        <v>-3.0</v>
       </c>
       <c r="LV38" t="n" s="10">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="LW38" t="n" s="10">
+        <v>-3.2</v>
+      </c>
+      <c r="LX38" t="n" s="10">
         <v>-3.1</v>
-      </c>
-      <c r="LX38" t="n" s="10">
-        <v>-3.0</v>
       </c>
       <c r="LY38" t="n" s="10">
         <v>-3.7</v>
       </c>
       <c r="LZ38" t="n" s="10">
-        <v>-4.2</v>
+        <v>-4.3</v>
       </c>
       <c r="MA38" t="n" s="10">
         <v>-3.2</v>
       </c>
-      <c r="MB38" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC38" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MD38" t="s" s="10">
-        <v>51</v>
+      <c r="MB38" t="n" s="10">
+        <v>-2.0</v>
+      </c>
+      <c r="MC38" t="n" s="10">
+        <v>-0.9</v>
+      </c>
+      <c r="MD38" t="n" s="10">
+        <v>-0.4</v>
       </c>
       <c r="ME38" t="s" s="10">
         <v>51</v>
@@ -40049,13 +40048,13 @@
         <v>57</v>
       </c>
       <c r="MB39" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC39" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD39" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME39" t="s" s="10">
         <v>51</v>
@@ -41101,13 +41100,13 @@
         <v>57</v>
       </c>
       <c r="MB40" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC40" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD40" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME40" t="s" s="10">
         <v>51</v>
@@ -42153,13 +42152,13 @@
         <v>57</v>
       </c>
       <c r="MB41" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC41" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD41" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME41" t="s" s="10">
         <v>51</v>
@@ -43205,13 +43204,13 @@
         <v>57</v>
       </c>
       <c r="MB42" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC42" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD42" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME42" t="s" s="10">
         <v>51</v>
@@ -44223,10 +44222,10 @@
         <v>105.9</v>
       </c>
       <c r="LO44" t="n" s="10">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="LP44" t="n" s="10">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="LQ44" t="n" s="10">
         <v>104.2</v>
@@ -44235,40 +44234,40 @@
         <v>104.6</v>
       </c>
       <c r="LS44" t="n" s="10">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="LT44" t="n" s="10">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="LU44" t="n" s="10">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="LV44" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="LW44" t="n" s="10">
+        <v>106.2</v>
+      </c>
+      <c r="LX44" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="LY44" t="n" s="10">
+        <v>107.3</v>
+      </c>
+      <c r="LZ44" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="MA44" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="MB44" t="n" s="10">
+        <v>105.1</v>
+      </c>
+      <c r="MC44" t="n" s="10">
+        <v>105.3</v>
+      </c>
+      <c r="MD44" t="n" s="10">
         <v>105.6</v>
-      </c>
-      <c r="LW44" t="n" s="10">
-        <v>106.1</v>
-      </c>
-      <c r="LX44" t="n" s="10">
-        <v>106.3</v>
-      </c>
-      <c r="LY44" t="n" s="10">
-        <v>107.2</v>
-      </c>
-      <c r="LZ44" t="n" s="10">
-        <v>107.0</v>
-      </c>
-      <c r="MA44" t="n" s="10">
-        <v>105.5</v>
-      </c>
-      <c r="MB44" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC44" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MD44" t="s" s="10">
-        <v>51</v>
       </c>
       <c r="ME44" t="s" s="10">
         <v>51</v>
@@ -45275,10 +45274,10 @@
         <v>2.3</v>
       </c>
       <c r="LO45" t="n" s="10">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="LP45" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="LQ45" t="n" s="10">
         <v>1.4</v>
@@ -45290,37 +45289,37 @@
         <v>2.0</v>
       </c>
       <c r="LT45" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="LU45" t="n" s="10">
         <v>1.5</v>
       </c>
-      <c r="LU45" t="n" s="10">
-        <v>1.4</v>
-      </c>
       <c r="LV45" t="n" s="10">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="LW45" t="n" s="10">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="LX45" t="n" s="10">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="LY45" t="n" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="LZ45" t="n" s="10">
         <v>1.2</v>
-      </c>
-      <c r="LZ45" t="n" s="10">
-        <v>1.0</v>
       </c>
       <c r="MA45" t="n" s="10">
         <v>1.2</v>
       </c>
-      <c r="MB45" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC45" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MD45" t="s" s="10">
-        <v>51</v>
+      <c r="MB45" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="MC45" t="n" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="MD45" t="n" s="10">
+        <v>1.0</v>
       </c>
       <c r="ME45" t="s" s="10">
         <v>51</v>
@@ -46366,13 +46365,13 @@
         <v>57</v>
       </c>
       <c r="MB46" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC46" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD46" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME46" t="s" s="10">
         <v>51</v>
@@ -47418,13 +47417,13 @@
         <v>57</v>
       </c>
       <c r="MB47" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC47" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD47" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME47" t="s" s="10">
         <v>51</v>
@@ -48470,13 +48469,13 @@
         <v>57</v>
       </c>
       <c r="MB48" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC48" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD48" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME48" t="s" s="10">
         <v>51</v>
@@ -49522,13 +49521,13 @@
         <v>57</v>
       </c>
       <c r="MB49" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC49" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD49" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME49" t="s" s="10">
         <v>51</v>
@@ -50561,31 +50560,31 @@
         <v>119.4</v>
       </c>
       <c r="LV51" t="n" s="10">
-        <v>119.6</v>
+        <v>119.7</v>
       </c>
       <c r="LW51" t="n" s="10">
-        <v>119.4</v>
+        <v>119.5</v>
       </c>
       <c r="LX51" t="n" s="10">
         <v>120.0</v>
       </c>
       <c r="LY51" t="n" s="10">
-        <v>120.9</v>
+        <v>121.0</v>
       </c>
       <c r="LZ51" t="n" s="10">
         <v>120.9</v>
       </c>
       <c r="MA51" t="n" s="10">
-        <v>120.4</v>
-      </c>
-      <c r="MB51" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC51" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MD51" t="s" s="10">
-        <v>51</v>
+        <v>120.8</v>
+      </c>
+      <c r="MB51" t="n" s="10">
+        <v>121.8</v>
+      </c>
+      <c r="MC51" t="n" s="10">
+        <v>122.3</v>
+      </c>
+      <c r="MD51" t="n" s="10">
+        <v>122.2</v>
       </c>
       <c r="ME51" t="s" s="10">
         <v>51</v>
@@ -51613,10 +51612,10 @@
         <v>9.3</v>
       </c>
       <c r="LV52" t="n" s="10">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="LW52" t="n" s="10">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="LX52" t="n" s="10">
         <v>8.3</v>
@@ -51628,16 +51627,16 @@
         <v>7.1</v>
       </c>
       <c r="MA52" t="n" s="10">
-        <v>5.9</v>
-      </c>
-      <c r="MB52" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC52" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MD52" t="s" s="10">
-        <v>51</v>
+        <v>6.2</v>
+      </c>
+      <c r="MB52" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="MC52" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="MD52" t="n" s="10">
+        <v>3.8</v>
       </c>
       <c r="ME52" t="s" s="10">
         <v>51</v>
@@ -52683,13 +52682,13 @@
         <v>57</v>
       </c>
       <c r="MB53" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC53" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD53" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME53" t="s" s="10">
         <v>51</v>
@@ -53735,13 +53734,13 @@
         <v>57</v>
       </c>
       <c r="MB54" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC54" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD54" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME54" t="s" s="10">
         <v>51</v>
@@ -54787,13 +54786,13 @@
         <v>57</v>
       </c>
       <c r="MB55" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC55" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD55" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME55" t="s" s="10">
         <v>51</v>
@@ -55839,13 +55838,13 @@
         <v>57</v>
       </c>
       <c r="MB56" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC56" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD56" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME56" t="s" s="10">
         <v>51</v>
@@ -56875,31 +56874,31 @@
         <v>104.5</v>
       </c>
       <c r="LU58" t="n" s="10">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="LV58" t="n" s="10">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="LW58" t="n" s="10">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="LX58" t="n" s="10">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="LY58" t="n" s="10">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="LZ58" t="n" s="10">
         <v>105.8</v>
       </c>
       <c r="MA58" t="n" s="10">
-        <v>104.5</v>
-      </c>
-      <c r="MB58" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC58" t="s" s="10">
-        <v>51</v>
+        <v>104.6</v>
+      </c>
+      <c r="MB58" t="n" s="10">
+        <v>104.3</v>
+      </c>
+      <c r="MC58" t="n" s="10">
+        <v>104.4</v>
       </c>
       <c r="MD58" t="s" s="10">
         <v>51</v>
@@ -57927,31 +57926,31 @@
         <v>0.6</v>
       </c>
       <c r="LU59" t="n" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="LV59" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="LW59" t="n" s="10">
         <v>0.4</v>
       </c>
-      <c r="LV59" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="LW59" t="n" s="10">
+      <c r="LX59" t="n" s="10">
         <v>0.3</v>
       </c>
-      <c r="LX59" t="n" s="10">
-        <v>0.2</v>
-      </c>
       <c r="LY59" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="LZ59" t="n" s="10">
         <v>0.4</v>
       </c>
       <c r="MA59" t="n" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="MB59" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC59" t="s" s="10">
-        <v>51</v>
+        <v>0.8</v>
+      </c>
+      <c r="MB59" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="MC59" t="n" s="10">
+        <v>0.8</v>
       </c>
       <c r="MD59" t="s" s="10">
         <v>51</v>
@@ -58960,53 +58959,53 @@
       <c r="LN60" t="n" s="10">
         <v>104.3</v>
       </c>
-      <c r="LO60" t="n" s="10">
-        <v>102.7</v>
-      </c>
-      <c r="LP60" t="n" s="10">
-        <v>102.2</v>
-      </c>
-      <c r="LQ60" t="n" s="10">
-        <v>102.5</v>
-      </c>
-      <c r="LR60" t="n" s="10">
-        <v>102.7</v>
-      </c>
-      <c r="LS60" t="n" s="10">
-        <v>103.0</v>
-      </c>
-      <c r="LT60" t="n" s="10">
-        <v>103.4</v>
-      </c>
-      <c r="LU60" t="n" s="10">
-        <v>103.3</v>
-      </c>
-      <c r="LV60" t="n" s="10">
-        <v>103.6</v>
-      </c>
-      <c r="LW60" t="n" s="10">
-        <v>104.0</v>
-      </c>
-      <c r="LX60" t="n" s="10">
-        <v>104.1</v>
-      </c>
-      <c r="LY60" t="n" s="10">
-        <v>104.6</v>
-      </c>
-      <c r="LZ60" t="n" s="10">
-        <v>104.7</v>
-      </c>
-      <c r="MA60" t="n" s="10">
-        <v>103.4</v>
+      <c r="LO60" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LP60" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LQ60" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LR60" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LS60" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LT60" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LU60" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LV60" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LW60" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LX60" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LY60" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LZ60" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MA60" t="s" s="10">
+        <v>57</v>
       </c>
       <c r="MB60" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC60" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD60" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME60" t="s" s="10">
         <v>51</v>
@@ -60012,53 +60011,53 @@
       <c r="LN61" t="n" s="10">
         <v>0.7</v>
       </c>
-      <c r="LO61" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="LP61" t="n" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="LQ61" t="n" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="LR61" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="LS61" t="n" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="LT61" t="n" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="LU61" t="n" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="LV61" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="LW61" t="n" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="LX61" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="LY61" t="n" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="LZ61" t="n" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="MA61" t="n" s="10">
-        <v>0.7</v>
+      <c r="LO61" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LP61" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LQ61" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LR61" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LS61" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LT61" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LU61" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LV61" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LW61" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LX61" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LY61" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LZ61" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MA61" t="s" s="10">
+        <v>57</v>
       </c>
       <c r="MB61" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC61" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD61" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME61" t="s" s="10">
         <v>51</v>
@@ -61064,53 +61063,53 @@
       <c r="LN62" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="LO62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LP62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LQ62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LR62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LS62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LT62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LU62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LV62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LW62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LX62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LY62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LZ62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="MA62" t="n" s="10">
-        <v>0.0</v>
+      <c r="LO62" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LP62" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LQ62" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LR62" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LS62" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LT62" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LU62" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LV62" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LW62" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LX62" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LY62" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="LZ62" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MA62" t="s" s="10">
+        <v>57</v>
       </c>
       <c r="MB62" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC62" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD62" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME62" t="s" s="10">
         <v>51</v>
@@ -62117,52 +62116,52 @@
         <v>-100.0</v>
       </c>
       <c r="LO63" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="LP63" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="LQ63" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="LR63" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="LS63" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="LT63" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="LU63" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="LV63" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="LW63" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="LX63" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="LY63" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="LZ63" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="MA63" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="MB63" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC63" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD63" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="ME63" t="s" s="10">
         <v>51</v>
@@ -62276,7 +62275,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:40:09&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:18:08&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Persons employed in retail trade.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Persons employed in retail trade.xlsx
@@ -226,7 +226,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:17:59</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:30:55</t>
   </si>
 </sst>
 </file>
@@ -62275,7 +62275,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:18:08&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:31:04&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>